--- a/database/AN_pp/expdata/3005.xlsx
+++ b/database/AN_pp/expdata/3005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE175E6D-E9C4-384A-9D20-328A776DA7F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C1166-8CC6-EE42-9883-EE1BBFBE6F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="2060" windowWidth="28040" windowHeight="16440" xr2:uid="{4FF8947F-5ECC-5946-9A8C-9F2A7674DCA5}"/>
+    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16440" xr2:uid="{4FF8947F-5ECC-5946-9A8C-9F2A7674DCA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000_ "/>
-    <numFmt numFmtId="165" formatCode="0.0000_ "/>
     <numFmt numFmtId="166" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="2">
@@ -112,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,12 +126,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -142,85 +137,29 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,43 +477,43 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -582,270 +521,260 @@
       <c r="A2" s="4">
         <v>0.16189300000000001</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="5">
         <v>-3.4763900000000002E-3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="5">
         <v>1.0096300000000001E-2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="5">
         <v>4.3411700000000003E-5</v>
       </c>
       <c r="E2" s="4">
         <v>3.15645</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>500</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>0.18184</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="5">
         <v>2.91224E-3</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="5">
         <v>9.6725300000000004E-3</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="5">
         <v>6.1156999999999997E-5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3.41967</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>500</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>0.201764</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="5">
         <v>1.4735699999999999E-2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="5">
         <v>1.18248E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="5">
         <v>1.4735700000000001E-4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3.5672899999999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>500</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0.22156799999999999</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <v>-9.10358E-3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="5">
         <v>1.1993200000000001E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="5">
         <v>4.4607499999999999E-4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.68594</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>500</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>0.24470500000000001</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <v>1.02632E-2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="5">
         <v>1.4438299999999999E-2</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>3.82524</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>500</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>0.27679300000000001</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>2.33908E-2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>1.30426E-2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="5">
         <v>4.4442499999999997E-4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>4.1136499999999998</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>500</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" thickBot="1">
-      <c r="A8" s="6">
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4">
         <v>0.32241199999999998</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="5">
         <v>-3.4351999999999998E-3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <v>2.1640300000000001E-2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="5">
         <v>8.5879900000000004E-5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>4.6491499999999997</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>500</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/AN_pp/expdata/3005.xlsx
+++ b/database/AN_pp/expdata/3005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C1166-8CC6-EE42-9883-EE1BBFBE6F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D35D11-6A2A-ED45-9F4B-DB4A4514C1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16440" xr2:uid="{4FF8947F-5ECC-5946-9A8C-9F2A7674DCA5}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="15720" windowHeight="16440" xr2:uid="{D72B2F36-8BDE-944A-AF65-150DFC2456FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>stat_err_u</t>
   </si>
   <si>
-    <t>sys_err_u</t>
+    <t>sys_err_</t>
   </si>
   <si>
     <t>pT</t>
@@ -76,11 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000_ "/>
-    <numFmt numFmtId="166" formatCode="0.00000_ "/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,30 +84,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -119,47 +101,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,308 +420,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403FE18C-DC40-084A-A4D9-DCC893C58F67}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F95805E-B2A6-D44A-BBF3-DCE6BC34FAC9}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4">
-        <v>0.16189300000000001</v>
-      </c>
-      <c r="B2" s="5">
-        <v>-3.4763900000000002E-3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.0096300000000001E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4.3411700000000003E-5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.15645</v>
-      </c>
-      <c r="F2" s="6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="B2">
+        <v>-3.48E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E2">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="F2">
         <v>500</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4">
-        <v>0.18184</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2.91224E-3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>9.6725300000000004E-3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6.1156999999999997E-5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3.41967</v>
-      </c>
-      <c r="F3" s="6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.182</v>
+      </c>
+      <c r="B3">
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="C3">
+        <v>9.6699999999999998E-3</v>
+      </c>
+      <c r="D3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="E3">
+        <v>3.42</v>
+      </c>
+      <c r="F3">
         <v>500</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4">
-        <v>0.201764</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.4735699999999999E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.18248E-2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.4735700000000001E-4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.5672899999999998</v>
-      </c>
-      <c r="F4" s="6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="B4">
+        <v>1.474E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.1820000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="E4">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="F4">
         <v>500</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4">
-        <v>0.22156799999999999</v>
-      </c>
-      <c r="B5" s="5">
-        <v>-9.10358E-3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.1993200000000001E-2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4.4607499999999999E-4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.68594</v>
-      </c>
-      <c r="F5" s="6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.222</v>
+      </c>
+      <c r="B5">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.1990000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="E5">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="F5">
         <v>500</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4">
-        <v>0.24470500000000001</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1.02632E-2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.4438299999999999E-2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.82524</v>
-      </c>
-      <c r="F6" s="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.245</v>
+      </c>
+      <c r="B6">
+        <v>1.026E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.444E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="F6">
         <v>500</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4">
-        <v>0.27679300000000001</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2.33908E-2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.30426E-2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4.4442499999999997E-4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4.1136499999999998</v>
-      </c>
-      <c r="F7" s="6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="B7">
+        <v>2.3390000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.304E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="E7">
+        <v>4.1139999999999999</v>
+      </c>
+      <c r="F7">
         <v>500</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4">
-        <v>0.32241199999999998</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-3.4351999999999998E-3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.1640300000000001E-2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>8.5879900000000004E-5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.6491499999999997</v>
-      </c>
-      <c r="F8" s="6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="B8">
+        <v>-3.4399999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>2.164E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="E8">
+        <v>4.649</v>
+      </c>
+      <c r="F8">
         <v>500</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/AN_pp/expdata/3005.xlsx
+++ b/database/AN_pp/expdata/3005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D35D11-6A2A-ED45-9F4B-DB4A4514C1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0134522-0B69-134A-B07B-F69809887B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="15720" windowHeight="16440" xr2:uid="{D72B2F36-8BDE-944A-AF65-150DFC2456FE}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>stat_err_u</t>
   </si>
   <si>
-    <t>sys_err_</t>
-  </si>
-  <si>
     <t>pT</t>
   </si>
   <si>
@@ -70,14 +67,25 @@
   </si>
   <si>
     <t>AN</t>
+  </si>
+  <si>
+    <t>sys_err_u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,47 +435,47 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0.16200000000000001</v>
       </c>
@@ -484,22 +495,22 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0.182</v>
       </c>
@@ -519,22 +530,22 @@
         <v>500</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>0.20200000000000001</v>
       </c>
@@ -554,22 +565,22 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>0.222</v>
       </c>
@@ -589,22 +600,22 @@
         <v>500</v>
       </c>
       <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0.245</v>
       </c>
@@ -624,22 +635,22 @@
         <v>500</v>
       </c>
       <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>0.27700000000000002</v>
       </c>
@@ -659,22 +670,22 @@
         <v>500</v>
       </c>
       <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>0.32200000000000001</v>
       </c>
@@ -694,16 +705,16 @@
         <v>500</v>
       </c>
       <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>0</v>

--- a/database/AN_pp/expdata/3005.xlsx
+++ b/database/AN_pp/expdata/3005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0134522-0B69-134A-B07B-F69809887B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D786BD7-944C-D240-A207-F67E34A3DEEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="15720" windowHeight="16440" xr2:uid="{D72B2F36-8BDE-944A-AF65-150DFC2456FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D72B2F36-8BDE-944A-AF65-150DFC2456FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -477,16 +477,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>0.16200000000000001</v>
+        <v>0.16189300000000001</v>
       </c>
       <c r="B2">
-        <v>-3.48E-3</v>
+        <v>-3.4763900000000002E-3</v>
       </c>
       <c r="C2">
-        <v>1.01E-2</v>
+        <v>1.0096300000000001E-2</v>
       </c>
       <c r="D2">
-        <v>4.0000000000000003E-5</v>
+        <v>4.3411700000000003E-5</v>
       </c>
       <c r="E2">
         <v>3.1560000000000001</v>
@@ -512,16 +512,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0.182</v>
+        <v>0.18184</v>
       </c>
       <c r="B3">
-        <v>2.9099999999999998E-3</v>
+        <v>2.91224E-3</v>
       </c>
       <c r="C3">
-        <v>9.6699999999999998E-3</v>
+        <v>9.6725300000000004E-3</v>
       </c>
       <c r="D3">
-        <v>6.0000000000000002E-5</v>
+        <v>6.1156999999999997E-5</v>
       </c>
       <c r="E3">
         <v>3.42</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0.20200000000000001</v>
+        <v>0.201764</v>
       </c>
       <c r="B4">
-        <v>1.474E-2</v>
+        <v>1.4735699999999999E-2</v>
       </c>
       <c r="C4">
-        <v>1.1820000000000001E-2</v>
+        <v>1.18248E-2</v>
       </c>
       <c r="D4">
-        <v>1.4999999999999999E-4</v>
+        <v>1.4735700000000001E-4</v>
       </c>
       <c r="E4">
         <v>3.5670000000000002</v>
@@ -582,16 +582,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0.222</v>
+        <v>0.22156799999999999</v>
       </c>
       <c r="B5">
-        <v>-9.1000000000000004E-3</v>
+        <v>-9.10358E-3</v>
       </c>
       <c r="C5">
-        <v>1.1990000000000001E-2</v>
+        <v>1.1993200000000001E-2</v>
       </c>
       <c r="D5">
-        <v>4.4999999999999999E-4</v>
+        <v>4.4607499999999999E-4</v>
       </c>
       <c r="E5">
         <v>3.6859999999999999</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0.245</v>
+        <v>0.24470500000000001</v>
       </c>
       <c r="B6">
-        <v>1.026E-2</v>
+        <v>1.02632E-2</v>
       </c>
       <c r="C6">
-        <v>1.444E-2</v>
+        <v>1.4438299999999999E-2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0.27700000000000002</v>
+        <v>0.27679300000000001</v>
       </c>
       <c r="B7">
-        <v>2.3390000000000001E-2</v>
+        <v>2.33908E-2</v>
       </c>
       <c r="C7">
-        <v>1.304E-2</v>
+        <v>1.30426E-2</v>
       </c>
       <c r="D7">
-        <v>4.4000000000000002E-4</v>
+        <v>4.4442499999999997E-4</v>
       </c>
       <c r="E7">
         <v>4.1139999999999999</v>
@@ -687,16 +687,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0.32200000000000001</v>
+        <v>0.32241199999999998</v>
       </c>
       <c r="B8">
-        <v>-3.4399999999999999E-3</v>
+        <v>-3.4351999999999998E-3</v>
       </c>
       <c r="C8">
-        <v>2.164E-2</v>
+        <v>2.1640300000000001E-2</v>
       </c>
       <c r="D8">
-        <v>9.0000000000000006E-5</v>
+        <v>8.5879900000000004E-5</v>
       </c>
       <c r="E8">
         <v>4.649</v>
